--- a/biology/Zoologie/Clupea/Clupea.xlsx
+++ b/biology/Zoologie/Clupea/Clupea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clupea est un genre de poissons de la famille des clupéidés (Clupeidae). Cette famille comprend certains des poissons les plus consommés dans le monde comme les harengs, aloses, sardines, et menhadens.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (29 janvier 2020)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (29 janvier 2020) :
 Clupea bentincki Norman, 1936
 Clupea harengula
 Clupea harengus Linnaeus, 1758 - Hareng atlantique
